--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +864,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +957,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1054,10 +1066,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1101,28 +1113,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1147,28 +1159,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1314,10 +1326,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1361,28 +1373,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1407,28 +1419,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1516,10 +1528,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1563,28 +1575,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1609,28 +1621,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1747,10 +1759,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1794,28 +1806,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1840,28 +1852,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1978,10 +1990,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2025,28 +2037,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2071,28 +2083,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2180,10 +2192,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2227,28 +2239,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2273,28 +2285,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2382,10 +2394,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2429,28 +2441,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2475,28 +2487,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2584,10 +2596,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2631,28 +2643,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2677,28 +2689,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2815,10 +2827,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2862,28 +2874,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2908,28 +2920,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3017,10 +3029,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3064,28 +3076,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3110,28 +3122,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3248,10 +3260,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3295,28 +3307,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3341,28 +3353,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3421,10 +3433,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3468,28 +3480,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3514,28 +3526,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3681,10 +3693,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3728,28 +3740,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3774,28 +3786,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3941,10 +3953,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3988,28 +4000,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4034,28 +4046,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4143,10 +4155,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4190,28 +4202,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4236,28 +4248,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4403,10 +4415,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4450,28 +4462,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4496,28 +4508,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4663,10 +4675,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4710,28 +4722,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4756,28 +4768,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4836,10 +4848,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4883,28 +4895,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4929,28 +4941,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5067,10 +5079,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5114,28 +5126,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5160,28 +5172,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5356,10 +5368,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5403,28 +5415,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5449,28 +5461,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5558,10 +5570,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5605,28 +5617,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5651,28 +5663,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5760,10 +5772,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5807,28 +5819,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5853,28 +5865,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6020,10 +6032,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6067,28 +6079,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6113,28 +6125,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6222,10 +6234,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6269,28 +6281,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6315,28 +6327,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6395,10 +6407,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6442,28 +6454,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6488,28 +6500,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6626,10 +6638,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6673,28 +6685,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6719,28 +6731,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6857,10 +6869,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6904,28 +6916,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6950,28 +6962,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7059,10 +7071,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7106,28 +7118,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7152,28 +7164,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7261,10 +7273,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7308,28 +7320,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7354,28 +7366,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7463,10 +7475,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7510,28 +7522,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7556,28 +7568,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7636,10 +7648,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7683,28 +7695,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7729,28 +7741,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7838,10 +7850,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7885,28 +7897,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7931,28 +7943,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8011,10 +8023,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8058,28 +8070,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8104,28 +8116,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8213,10 +8225,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8260,28 +8272,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8306,28 +8318,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8415,10 +8427,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="2" t="s">
+      <c r="J287" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8462,28 +8474,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="2">
+      <c r="A289" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="2">
+      <c r="C289" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8508,28 +8520,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="2">
+      <c r="C291" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="2">
+      <c r="D291" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="2">
+      <c r="I291" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8588,10 +8600,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="2" t="s">
+      <c r="J293" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8635,28 +8647,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="2">
+      <c r="A295" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="2">
+      <c r="C295" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8681,28 +8693,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="2">
+      <c r="C297" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="2">
+      <c r="D297" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="2">
+      <c r="I297" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8761,10 +8773,10 @@
       <c r="I299">
         <f>((C299-C298)^2+(D299- D298)^2)^.5</f>
       </c>
-      <c r="J299" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K299" s="2" t="s">
+      <c r="J299" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K299" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L299" t="n">
@@ -8808,28 +8820,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="2">
+      <c r="A301" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C301" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D301" t="s" s="2">
+      <c r="C301" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8854,28 +8866,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C303" t="s" s="2">
+      <c r="C303" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D303" t="s" s="2">
+      <c r="D303" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I303" t="s" s="2">
+      <c r="I303" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8934,10 +8946,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="2" t="s">
+      <c r="J305" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8981,28 +8993,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="2">
+      <c r="A307" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="2">
+      <c r="C307" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9027,28 +9039,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="2">
+      <c r="C309" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="2">
+      <c r="D309" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="2">
+      <c r="I309" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9107,10 +9119,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9264" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -431,10 +479,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="J10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -478,28 +526,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="4">
+      <c r="A12" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="4">
+      <c r="B12" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="4">
+      <c r="C12" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="4">
+      <c r="E12" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="4">
+      <c r="F12" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="4">
+      <c r="G12" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="4">
+      <c r="H12" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -524,28 +572,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="4">
+      <c r="B14" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="C14" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="4">
+      <c r="D14" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="4">
+      <c r="E14" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="4">
+      <c r="F14" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="4">
+      <c r="G14" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="4">
+      <c r="H14" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="4">
+      <c r="I14" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -691,10 +739,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="J19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -738,28 +786,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="4">
+      <c r="A21" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="4">
+      <c r="B21" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="4">
+      <c r="C21" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="4">
+      <c r="E21" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="4">
+      <c r="F21" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="4">
+      <c r="G21" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="4">
+      <c r="H21" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -784,28 +832,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="4">
+      <c r="B23" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="4">
+      <c r="C23" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="4">
+      <c r="D23" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="4">
+      <c r="E23" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="4">
+      <c r="F23" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="4">
+      <c r="G23" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="4">
+      <c r="H23" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="4">
+      <c r="I23" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -864,10 +912,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="4" t="s">
+      <c r="J25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -911,28 +959,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="4">
+      <c r="A27" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="4">
+      <c r="B27" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="4">
+      <c r="C27" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="4">
+      <c r="E27" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="4">
+      <c r="F27" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="4">
+      <c r="G27" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="4">
+      <c r="H27" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -957,28 +1005,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="4">
+      <c r="B29" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="4">
+      <c r="C29" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="4">
+      <c r="D29" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="4">
+      <c r="E29" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="4">
+      <c r="F29" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="4">
+      <c r="G29" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="4">
+      <c r="H29" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="4">
+      <c r="I29" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1066,10 +1114,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="4" t="s">
+      <c r="J32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1113,28 +1161,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="4">
+      <c r="A34" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="4">
+      <c r="C34" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="4">
+      <c r="G34" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="4">
+      <c r="H34" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1159,28 +1207,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="4">
+      <c r="B36" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="4">
+      <c r="C36" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="4">
+      <c r="D36" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="4">
+      <c r="E36" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="4">
+      <c r="F36" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="4">
+      <c r="G36" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="4">
+      <c r="H36" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="4">
+      <c r="I36" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1326,10 +1374,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="4" t="s">
+      <c r="J41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1373,28 +1421,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="4">
+      <c r="A43" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="4">
+      <c r="B43" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="4">
+      <c r="C43" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="4">
+      <c r="E43" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="4">
+      <c r="F43" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="4">
+      <c r="G43" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="4">
+      <c r="H43" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1419,28 +1467,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="4">
+      <c r="B45" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="4">
+      <c r="C45" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="4">
+      <c r="D45" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="4">
+      <c r="E45" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="4">
+      <c r="F45" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="4">
+      <c r="G45" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="4">
+      <c r="H45" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="4">
+      <c r="I45" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1528,10 +1576,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="4" t="s">
+      <c r="J48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1575,28 +1623,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="4">
+      <c r="A50" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="4">
+      <c r="C50" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="4">
+      <c r="G50" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="4">
+      <c r="H50" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1621,28 +1669,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="4">
+      <c r="B52" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="4">
+      <c r="C52" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="4">
+      <c r="D52" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="4">
+      <c r="E52" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="4">
+      <c r="F52" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="4">
+      <c r="G52" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="4">
+      <c r="H52" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="4">
+      <c r="I52" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1759,10 +1807,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="4" t="s">
+      <c r="J56" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1806,28 +1854,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="4">
+      <c r="A58" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="4">
+      <c r="B58" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="4">
+      <c r="C58" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="4">
+      <c r="E58" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="4">
+      <c r="F58" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="4">
+      <c r="G58" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="4">
+      <c r="H58" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1852,28 +1900,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="4">
+      <c r="B60" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="4">
+      <c r="C60" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="4">
+      <c r="D60" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="4">
+      <c r="E60" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="4">
+      <c r="F60" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="4">
+      <c r="G60" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="4">
+      <c r="H60" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="4">
+      <c r="I60" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1990,10 +2038,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="4" t="s">
+      <c r="J64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2037,28 +2085,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="4">
+      <c r="A66" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="4">
+      <c r="B66" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="4">
+      <c r="C66" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="4">
+      <c r="E66" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="4">
+      <c r="F66" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="4">
+      <c r="G66" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="4">
+      <c r="H66" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2083,28 +2131,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="4">
+      <c r="C68" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="4">
+      <c r="D68" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="4">
+      <c r="E68" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="4">
+      <c r="F68" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="4">
+      <c r="G68" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="4">
+      <c r="H68" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="4">
+      <c r="I68" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2192,10 +2240,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="4" t="s">
+      <c r="J71" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2239,28 +2287,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="4">
+      <c r="A73" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="4">
+      <c r="C73" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="4">
+      <c r="E73" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="4">
+      <c r="F73" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="4">
+      <c r="G73" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="4">
+      <c r="H73" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2285,28 +2333,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="4">
+      <c r="B75" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="4">
+      <c r="C75" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="4">
+      <c r="D75" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="4">
+      <c r="E75" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="4">
+      <c r="F75" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="4">
+      <c r="G75" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="4">
+      <c r="H75" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="4">
+      <c r="I75" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2394,10 +2442,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="4" t="s">
+      <c r="J78" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2441,28 +2489,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="4">
+      <c r="A80" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="4">
+      <c r="B80" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="4">
+      <c r="C80" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="4">
+      <c r="E80" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="4">
+      <c r="F80" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="4">
+      <c r="G80" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="4">
+      <c r="H80" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2487,28 +2535,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="4">
+      <c r="B82" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="4">
+      <c r="C82" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="4">
+      <c r="D82" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="4">
+      <c r="E82" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="4">
+      <c r="F82" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="4">
+      <c r="G82" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="4">
+      <c r="H82" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="4">
+      <c r="I82" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2596,10 +2644,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="4" t="s">
+      <c r="J85" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2643,28 +2691,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="4">
+      <c r="A87" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="4">
+      <c r="B87" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="4">
+      <c r="C87" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="4">
+      <c r="E87" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="4">
+      <c r="F87" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="4">
+      <c r="G87" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="4">
+      <c r="H87" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2689,28 +2737,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="4">
+      <c r="C89" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="4">
+      <c r="D89" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="4">
+      <c r="I89" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2827,10 +2875,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="4" t="s">
+      <c r="J93" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2874,28 +2922,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="4">
+      <c r="A95" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="4">
+      <c r="B95" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="4">
+      <c r="C95" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="4">
+      <c r="E95" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="4">
+      <c r="F95" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="4">
+      <c r="G95" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="4">
+      <c r="H95" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2920,28 +2968,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="4">
+      <c r="C97" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="4">
+      <c r="D97" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="4">
+      <c r="G97" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="4">
+      <c r="H97" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="4">
+      <c r="I97" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3029,10 +3077,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="4" t="s">
+      <c r="J100" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3076,28 +3124,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="4">
+      <c r="A102" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="4">
+      <c r="B102" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="4">
+      <c r="C102" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="4">
+      <c r="E102" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="4">
+      <c r="F102" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="4">
+      <c r="G102" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="4">
+      <c r="H102" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3122,28 +3170,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="4">
+      <c r="B104" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="4">
+      <c r="C104" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="4">
+      <c r="D104" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="4">
+      <c r="E104" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="4">
+      <c r="F104" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="4">
+      <c r="G104" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="4">
+      <c r="H104" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="4">
+      <c r="I104" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3260,10 +3308,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="4" t="s">
+      <c r="J108" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3307,28 +3355,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="4">
+      <c r="A110" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="4">
+      <c r="C110" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="4">
+      <c r="E110" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="4">
+      <c r="F110" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="4">
+      <c r="G110" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="4">
+      <c r="H110" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3353,28 +3401,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="4">
+      <c r="B112" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="4">
+      <c r="C112" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="4">
+      <c r="D112" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="4">
+      <c r="E112" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="4">
+      <c r="F112" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="4">
+      <c r="G112" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="4">
+      <c r="H112" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="4">
+      <c r="I112" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3433,10 +3481,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="4" t="s">
+      <c r="J114" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3480,28 +3528,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="4">
+      <c r="A116" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="4">
+      <c r="B116" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="4">
+      <c r="C116" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="4">
+      <c r="E116" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="4">
+      <c r="F116" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="4">
+      <c r="G116" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="4">
+      <c r="H116" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3526,28 +3574,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="4">
+      <c r="B118" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="4">
+      <c r="C118" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="4">
+      <c r="D118" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="4">
+      <c r="E118" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="4">
+      <c r="F118" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="4">
+      <c r="G118" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="4">
+      <c r="H118" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="4">
+      <c r="I118" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3693,10 +3741,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="4" t="s">
+      <c r="J123" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3740,28 +3788,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="4">
+      <c r="A125" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="4">
+      <c r="B125" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="4">
+      <c r="C125" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="4">
+      <c r="E125" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="4">
+      <c r="F125" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="4">
+      <c r="G125" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="4">
+      <c r="H125" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3786,28 +3834,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="4">
+      <c r="B127" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="4">
+      <c r="C127" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="4">
+      <c r="D127" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="4">
+      <c r="E127" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="4">
+      <c r="F127" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="4">
+      <c r="G127" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="4">
+      <c r="H127" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="4">
+      <c r="I127" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3953,10 +4001,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="4" t="s">
+      <c r="J132" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -4000,28 +4048,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="4">
+      <c r="A134" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="4">
+      <c r="C134" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4046,28 +4094,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="4">
+      <c r="B136" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="4">
+      <c r="C136" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="4">
+      <c r="D136" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="4">
+      <c r="E136" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="4">
+      <c r="F136" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="4">
+      <c r="G136" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="4">
+      <c r="H136" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="4">
+      <c r="I136" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4155,10 +4203,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="4" t="s">
+      <c r="J139" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4202,28 +4250,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="4">
+      <c r="A141" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="4">
+      <c r="B141" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="4">
+      <c r="C141" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="4">
+      <c r="E141" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="4">
+      <c r="F141" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="4">
+      <c r="G141" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="4">
+      <c r="H141" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4248,28 +4296,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="4">
+      <c r="B143" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="4">
+      <c r="C143" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="4">
+      <c r="D143" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="4">
+      <c r="E143" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="4">
+      <c r="F143" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="4">
+      <c r="G143" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="4">
+      <c r="H143" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="4">
+      <c r="I143" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4415,10 +4463,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="4" t="s">
+      <c r="J148" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4462,28 +4510,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="4">
+      <c r="A150" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="4">
+      <c r="B150" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="4">
+      <c r="C150" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="4">
+      <c r="E150" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="4">
+      <c r="F150" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="4">
+      <c r="G150" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="4">
+      <c r="H150" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4508,28 +4556,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="4">
+      <c r="B152" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="4">
+      <c r="C152" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="4">
+      <c r="D152" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="4">
+      <c r="E152" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="4">
+      <c r="F152" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="4">
+      <c r="G152" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="4">
+      <c r="H152" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="4">
+      <c r="I152" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4675,10 +4723,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="4" t="s">
+      <c r="J157" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4722,28 +4770,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="4">
+      <c r="A159" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="4">
+      <c r="B159" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="4">
+      <c r="C159" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="4">
+      <c r="E159" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="4">
+      <c r="F159" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="4">
+      <c r="G159" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="4">
+      <c r="H159" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4768,28 +4816,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="4">
+      <c r="B161" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="4">
+      <c r="C161" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="4">
+      <c r="D161" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="4">
+      <c r="E161" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="4">
+      <c r="F161" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="4">
+      <c r="G161" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="4">
+      <c r="H161" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="4">
+      <c r="I161" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4848,10 +4896,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="4" t="s">
+      <c r="J163" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4895,28 +4943,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="4">
+      <c r="A165" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="4">
+      <c r="B165" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="4">
+      <c r="C165" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="4">
+      <c r="E165" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="4">
+      <c r="F165" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="4">
+      <c r="G165" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="4">
+      <c r="H165" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4941,28 +4989,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="4">
+      <c r="B167" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="4">
+      <c r="C167" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="4">
+      <c r="D167" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="4">
+      <c r="E167" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="4">
+      <c r="F167" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="4">
+      <c r="G167" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="4">
+      <c r="H167" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="4">
+      <c r="I167" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5079,10 +5127,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="4" t="s">
+      <c r="J171" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5126,28 +5174,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="4">
+      <c r="A173" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="4">
+      <c r="B173" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="4">
+      <c r="C173" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="4">
+      <c r="E173" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="4">
+      <c r="F173" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="4">
+      <c r="G173" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="4">
+      <c r="H173" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5172,28 +5220,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="4">
+      <c r="B175" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="4">
+      <c r="C175" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="4">
+      <c r="D175" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="4">
+      <c r="E175" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="4">
+      <c r="F175" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="4">
+      <c r="G175" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="4">
+      <c r="H175" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="4">
+      <c r="I175" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5368,10 +5416,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="4" t="s">
+      <c r="J181" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5415,28 +5463,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="4">
+      <c r="A183" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="4">
+      <c r="B183" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="4">
+      <c r="C183" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="4">
+      <c r="E183" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="4">
+      <c r="F183" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="4">
+      <c r="G183" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="4">
+      <c r="H183" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5461,28 +5509,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="4">
+      <c r="B185" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="4">
+      <c r="C185" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="4">
+      <c r="D185" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="4">
+      <c r="E185" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="4">
+      <c r="F185" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="4">
+      <c r="G185" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="4">
+      <c r="H185" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="4">
+      <c r="I185" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5570,10 +5618,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="4" t="s">
+      <c r="J188" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5617,28 +5665,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="4">
+      <c r="A190" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="4">
+      <c r="B190" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="4">
+      <c r="C190" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="4">
+      <c r="E190" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="4">
+      <c r="F190" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="4">
+      <c r="G190" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="4">
+      <c r="H190" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5663,28 +5711,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="4">
+      <c r="B192" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="4">
+      <c r="C192" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="4">
+      <c r="D192" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="4">
+      <c r="E192" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="4">
+      <c r="F192" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="4">
+      <c r="G192" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="4">
+      <c r="H192" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="4">
+      <c r="I192" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5772,10 +5820,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="4" t="s">
+      <c r="J195" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5819,28 +5867,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="4">
+      <c r="A197" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="4">
+      <c r="B197" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="4">
+      <c r="C197" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="4">
+      <c r="E197" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="4">
+      <c r="F197" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="4">
+      <c r="G197" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="4">
+      <c r="H197" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5865,28 +5913,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="4">
+      <c r="B199" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="4">
+      <c r="C199" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="4">
+      <c r="D199" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="4">
+      <c r="E199" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="4">
+      <c r="F199" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="4">
+      <c r="G199" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="4">
+      <c r="H199" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="4">
+      <c r="I199" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6032,10 +6080,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="4" t="s">
+      <c r="J204" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6079,28 +6127,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="4">
+      <c r="A206" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="4">
+      <c r="B206" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="4">
+      <c r="C206" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="4">
+      <c r="E206" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="4">
+      <c r="F206" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="4">
+      <c r="G206" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="4">
+      <c r="H206" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6125,28 +6173,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="4">
+      <c r="B208" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="4">
+      <c r="C208" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="4">
+      <c r="D208" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="4">
+      <c r="E208" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="4">
+      <c r="F208" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="4">
+      <c r="G208" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="4">
+      <c r="H208" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="4">
+      <c r="I208" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6234,10 +6282,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="4" t="s">
+      <c r="J211" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6281,28 +6329,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="4">
+      <c r="A213" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="4">
+      <c r="B213" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="4">
+      <c r="C213" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="4">
+      <c r="E213" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="4">
+      <c r="F213" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="4">
+      <c r="G213" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="4">
+      <c r="H213" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6327,28 +6375,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="4">
+      <c r="B215" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="4">
+      <c r="C215" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="4">
+      <c r="D215" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="4">
+      <c r="E215" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="4">
+      <c r="F215" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="4">
+      <c r="G215" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="4">
+      <c r="H215" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="4">
+      <c r="I215" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6407,10 +6455,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="4" t="s">
+      <c r="J217" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6454,28 +6502,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="4">
+      <c r="A219" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="4">
+      <c r="B219" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="4">
+      <c r="C219" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="4">
+      <c r="E219" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="4">
+      <c r="F219" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="4">
+      <c r="G219" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="4">
+      <c r="H219" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6500,28 +6548,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="4">
+      <c r="C221" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="4">
+      <c r="D221" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="4">
+      <c r="E221" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="4">
+      <c r="F221" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="4">
+      <c r="G221" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="4">
+      <c r="H221" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="4">
+      <c r="I221" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6638,10 +6686,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="4" t="s">
+      <c r="J225" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6685,28 +6733,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="4">
+      <c r="A227" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="4">
+      <c r="B227" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="4">
+      <c r="C227" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="4">
+      <c r="E227" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="4">
+      <c r="F227" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="4">
+      <c r="G227" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="4">
+      <c r="H227" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6731,28 +6779,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="4">
+      <c r="B229" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="4">
+      <c r="C229" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="4">
+      <c r="D229" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="4">
+      <c r="E229" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="4">
+      <c r="F229" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="4">
+      <c r="G229" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="4">
+      <c r="H229" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="4">
+      <c r="I229" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6869,10 +6917,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="4" t="s">
+      <c r="J233" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6916,28 +6964,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="4">
+      <c r="A235" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="4">
+      <c r="B235" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="4">
+      <c r="C235" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="4">
+      <c r="E235" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="4">
+      <c r="F235" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="4">
+      <c r="G235" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="4">
+      <c r="H235" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6962,28 +7010,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="4">
+      <c r="B237" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="4">
+      <c r="C237" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="4">
+      <c r="D237" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="4">
+      <c r="E237" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="4">
+      <c r="F237" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="4">
+      <c r="G237" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="4">
+      <c r="H237" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="4">
+      <c r="I237" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7071,10 +7119,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="4" t="s">
+      <c r="J240" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7118,28 +7166,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="4">
+      <c r="A242" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="4">
+      <c r="B242" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="4">
+      <c r="C242" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="4">
+      <c r="E242" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="4">
+      <c r="F242" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="4">
+      <c r="G242" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="4">
+      <c r="H242" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7164,28 +7212,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="4">
+      <c r="B244" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="4">
+      <c r="C244" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="4">
+      <c r="D244" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="4">
+      <c r="E244" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="4">
+      <c r="F244" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="4">
+      <c r="G244" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="4">
+      <c r="H244" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="4">
+      <c r="I244" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7273,10 +7321,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="4" t="s">
+      <c r="J247" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7320,28 +7368,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="4">
+      <c r="A249" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="4">
+      <c r="B249" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="4">
+      <c r="C249" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="4">
+      <c r="E249" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="4">
+      <c r="F249" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="4">
+      <c r="G249" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="4">
+      <c r="H249" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7366,28 +7414,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="4">
+      <c r="B251" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="4">
+      <c r="C251" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="4">
+      <c r="D251" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="4">
+      <c r="E251" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="4">
+      <c r="F251" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="4">
+      <c r="G251" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="4">
+      <c r="H251" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="4">
+      <c r="I251" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7475,10 +7523,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="4" t="s">
+      <c r="J254" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7522,28 +7570,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="4">
+      <c r="A256" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="4">
+      <c r="B256" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="4">
+      <c r="C256" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="4">
+      <c r="E256" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="4">
+      <c r="F256" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="4">
+      <c r="G256" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="4">
+      <c r="H256" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7568,28 +7616,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="4">
+      <c r="B258" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="4">
+      <c r="C258" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="4">
+      <c r="D258" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="4">
+      <c r="E258" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="4">
+      <c r="F258" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="4">
+      <c r="G258" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="4">
+      <c r="H258" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="4">
+      <c r="I258" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7648,10 +7696,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="4" t="s">
+      <c r="J260" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7695,28 +7743,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="4">
+      <c r="A262" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="4">
+      <c r="B262" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="4">
+      <c r="C262" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="4">
+      <c r="E262" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="4">
+      <c r="F262" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="4">
+      <c r="G262" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="4">
+      <c r="H262" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7741,28 +7789,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="4">
+      <c r="B264" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="4">
+      <c r="C264" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="4">
+      <c r="D264" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="4">
+      <c r="E264" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="4">
+      <c r="F264" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="4">
+      <c r="G264" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="4">
+      <c r="H264" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="4">
+      <c r="I264" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7850,10 +7898,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="4" t="s">
+      <c r="J267" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7897,28 +7945,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="4">
+      <c r="A269" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="4">
+      <c r="B269" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="4">
+      <c r="C269" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="4">
+      <c r="E269" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="4">
+      <c r="F269" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="4">
+      <c r="G269" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="4">
+      <c r="H269" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7943,28 +7991,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="4">
+      <c r="B271" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="4">
+      <c r="C271" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="4">
+      <c r="D271" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="4">
+      <c r="E271" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="4">
+      <c r="F271" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="4">
+      <c r="G271" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="4">
+      <c r="H271" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="4">
+      <c r="I271" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8023,10 +8071,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="4" t="s">
+      <c r="J273" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8070,28 +8118,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="4">
+      <c r="A275" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="4">
+      <c r="B275" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="4">
+      <c r="C275" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="4">
+      <c r="E275" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="4">
+      <c r="F275" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="4">
+      <c r="G275" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="4">
+      <c r="H275" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8116,28 +8164,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="4">
+      <c r="B277" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="4">
+      <c r="C277" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="4">
+      <c r="D277" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="4">
+      <c r="E277" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="4">
+      <c r="F277" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="4">
+      <c r="G277" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="4">
+      <c r="H277" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="4">
+      <c r="I277" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8225,10 +8273,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="4" t="s">
+      <c r="J280" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8272,28 +8320,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="4">
+      <c r="A282" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="4">
+      <c r="B282" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="4">
+      <c r="C282" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="4">
+      <c r="E282" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="4">
+      <c r="F282" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="4">
+      <c r="G282" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="4">
+      <c r="H282" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8318,28 +8366,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="4">
+      <c r="B284" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="4">
+      <c r="C284" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="4">
+      <c r="D284" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="4">
+      <c r="E284" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="4">
+      <c r="F284" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="4">
+      <c r="G284" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="4">
+      <c r="H284" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="4">
+      <c r="I284" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8427,10 +8475,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="4" t="s">
+      <c r="J287" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8474,28 +8522,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="4">
+      <c r="A289" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="4">
+      <c r="B289" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="4">
+      <c r="C289" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="4">
+      <c r="E289" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="4">
+      <c r="F289" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="4">
+      <c r="G289" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="4">
+      <c r="H289" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8520,28 +8568,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="4">
+      <c r="B291" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="4">
+      <c r="C291" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="4">
+      <c r="D291" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="4">
+      <c r="E291" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="4">
+      <c r="F291" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="4">
+      <c r="G291" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="4">
+      <c r="H291" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="4">
+      <c r="I291" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8600,10 +8648,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="4" t="s">
+      <c r="J293" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8647,28 +8695,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="4">
+      <c r="A295" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="4">
+      <c r="B295" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="4">
+      <c r="C295" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="4">
+      <c r="E295" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="4">
+      <c r="F295" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="4">
+      <c r="G295" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="4">
+      <c r="H295" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8693,28 +8741,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="4">
+      <c r="B297" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="4">
+      <c r="C297" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="4">
+      <c r="D297" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="4">
+      <c r="E297" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="4">
+      <c r="F297" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="4">
+      <c r="G297" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="4">
+      <c r="H297" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="4">
+      <c r="I297" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8773,10 +8821,10 @@
       <c r="I299">
         <f>((C299-C298)^2+(D299- D298)^2)^.5</f>
       </c>
-      <c r="J299" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K299" s="4" t="s">
+      <c r="J299" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K299" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L299" t="n">
@@ -8820,28 +8868,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="4">
+      <c r="A301" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B301" t="s" s="4">
+      <c r="B301" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C301" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D301" t="s" s="4">
+      <c r="C301" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E301" t="s" s="4">
+      <c r="E301" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F301" t="s" s="4">
+      <c r="F301" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G301" t="s" s="4">
+      <c r="G301" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H301" t="s" s="4">
+      <c r="H301" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8866,28 +8914,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="4">
+      <c r="B303" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C303" t="s" s="4">
+      <c r="C303" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D303" t="s" s="4">
+      <c r="D303" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E303" t="s" s="4">
+      <c r="E303" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F303" t="s" s="4">
+      <c r="F303" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G303" t="s" s="4">
+      <c r="G303" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H303" t="s" s="4">
+      <c r="H303" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I303" t="s" s="4">
+      <c r="I303" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8946,10 +8994,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="4" t="s">
+      <c r="J305" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8993,28 +9041,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="4">
+      <c r="A307" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="4">
+      <c r="B307" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="4">
+      <c r="C307" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="4">
+      <c r="E307" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="4">
+      <c r="F307" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="4">
+      <c r="G307" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="4">
+      <c r="H307" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9039,28 +9087,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="4">
+      <c r="B309" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="4">
+      <c r="C309" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="4">
+      <c r="D309" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="4">
+      <c r="E309" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="4">
+      <c r="F309" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="4">
+      <c r="G309" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="4">
+      <c r="H309" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="4">
+      <c r="I309" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9119,10 +9167,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="4" t="s">
+      <c r="J311" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9264" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11580" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -479,10 +497,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="12" t="s">
+      <c r="J10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -526,28 +544,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="12">
+      <c r="A12" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="12">
+      <c r="B12" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="12">
+      <c r="C12" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="12">
+      <c r="E12" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="12">
+      <c r="F12" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="12">
+      <c r="G12" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="12">
+      <c r="H12" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -572,28 +590,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="12">
+      <c r="B14" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="12">
+      <c r="C14" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="12">
+      <c r="D14" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="12">
+      <c r="E14" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="12">
+      <c r="F14" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="12">
+      <c r="G14" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="12">
+      <c r="H14" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="12">
+      <c r="I14" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -739,10 +757,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="12" t="s">
+      <c r="J19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -786,28 +804,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="12">
+      <c r="A21" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="12">
+      <c r="B21" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="12">
+      <c r="C21" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="12">
+      <c r="E21" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="12">
+      <c r="F21" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="12">
+      <c r="G21" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="12">
+      <c r="H21" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -832,28 +850,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="12">
+      <c r="B23" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="12">
+      <c r="C23" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="12">
+      <c r="D23" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="12">
+      <c r="E23" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="12">
+      <c r="F23" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="12">
+      <c r="G23" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="12">
+      <c r="H23" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="12">
+      <c r="I23" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -912,10 +930,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="12" t="s">
+      <c r="J25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -959,28 +977,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="12">
+      <c r="A27" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="12">
+      <c r="B27" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="12">
+      <c r="C27" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="12">
+      <c r="E27" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="12">
+      <c r="F27" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="12">
+      <c r="G27" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="12">
+      <c r="H27" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1005,28 +1023,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="12">
+      <c r="B29" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="12">
+      <c r="C29" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="12">
+      <c r="D29" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="12">
+      <c r="E29" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="12">
+      <c r="F29" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="12">
+      <c r="G29" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="12">
+      <c r="H29" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="12">
+      <c r="I29" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1114,10 +1132,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="12" t="s">
+      <c r="J32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1161,28 +1179,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="12">
+      <c r="A34" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="12">
+      <c r="B34" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="12">
+      <c r="C34" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F34" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1207,28 +1225,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="12">
+      <c r="B36" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="12">
+      <c r="C36" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="12">
+      <c r="D36" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="12">
+      <c r="E36" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="12">
+      <c r="F36" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="12">
+      <c r="G36" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="12">
+      <c r="H36" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="12">
+      <c r="I36" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1374,10 +1392,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="12" t="s">
+      <c r="J41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1421,28 +1439,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="12">
+      <c r="A43" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="12">
+      <c r="B43" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="12">
+      <c r="C43" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="12">
+      <c r="E43" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="12">
+      <c r="F43" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="12">
+      <c r="G43" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="12">
+      <c r="H43" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1467,28 +1485,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="12">
+      <c r="B45" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="12">
+      <c r="C45" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="12">
+      <c r="D45" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="12">
+      <c r="E45" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="12">
+      <c r="F45" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="12">
+      <c r="G45" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="12">
+      <c r="H45" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="12">
+      <c r="I45" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1576,10 +1594,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="12" t="s">
+      <c r="J48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1623,28 +1641,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="12">
+      <c r="A50" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="12">
+      <c r="B50" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="12">
+      <c r="C50" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="12">
+      <c r="E50" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="12">
+      <c r="F50" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="12">
+      <c r="G50" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="12">
+      <c r="H50" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1669,28 +1687,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="12">
+      <c r="B52" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="12">
+      <c r="C52" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="12">
+      <c r="D52" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="12">
+      <c r="E52" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="12">
+      <c r="F52" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="12">
+      <c r="G52" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="12">
+      <c r="H52" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="12">
+      <c r="I52" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1807,10 +1825,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="12" t="s">
+      <c r="J56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1854,28 +1872,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="12">
+      <c r="A58" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="12">
+      <c r="B58" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="12">
+      <c r="C58" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="12">
+      <c r="E58" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="12">
+      <c r="F58" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="12">
+      <c r="G58" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="12">
+      <c r="H58" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1900,28 +1918,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="12">
+      <c r="B60" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="12">
+      <c r="C60" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="12">
+      <c r="D60" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="12">
+      <c r="E60" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="12">
+      <c r="F60" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="12">
+      <c r="G60" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="12">
+      <c r="H60" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="12">
+      <c r="I60" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2038,10 +2056,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="12" t="s">
+      <c r="J64" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2085,28 +2103,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="12">
+      <c r="A66" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="12">
+      <c r="B66" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="12">
+      <c r="C66" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="12">
+      <c r="E66" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="12">
+      <c r="F66" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="12">
+      <c r="G66" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="12">
+      <c r="H66" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2131,28 +2149,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="12">
+      <c r="B68" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="12">
+      <c r="C68" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="12">
+      <c r="D68" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="12">
+      <c r="E68" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="12">
+      <c r="F68" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="12">
+      <c r="G68" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="12">
+      <c r="H68" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="12">
+      <c r="I68" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2240,10 +2258,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="12" t="s">
+      <c r="J71" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2287,28 +2305,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="12">
+      <c r="A73" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="12">
+      <c r="B73" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="12">
+      <c r="C73" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="12">
+      <c r="E73" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="12">
+      <c r="F73" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="12">
+      <c r="G73" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="12">
+      <c r="H73" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2333,28 +2351,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="12">
+      <c r="B75" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="12">
+      <c r="C75" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="12">
+      <c r="D75" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="12">
+      <c r="E75" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="12">
+      <c r="F75" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="12">
+      <c r="G75" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="12">
+      <c r="H75" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="12">
+      <c r="I75" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2442,10 +2460,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="12" t="s">
+      <c r="J78" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2489,28 +2507,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="12">
+      <c r="A80" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="12">
+      <c r="B80" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="12">
+      <c r="C80" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="12">
+      <c r="E80" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="12">
+      <c r="F80" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="12">
+      <c r="G80" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="12">
+      <c r="H80" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2535,28 +2553,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="12">
+      <c r="B82" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="12">
+      <c r="C82" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="12">
+      <c r="D82" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="12">
+      <c r="E82" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="12">
+      <c r="F82" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="12">
+      <c r="G82" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="12">
+      <c r="H82" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="12">
+      <c r="I82" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2644,10 +2662,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="12" t="s">
+      <c r="J85" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2691,28 +2709,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="12">
+      <c r="A87" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="12">
+      <c r="B87" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="12">
+      <c r="C87" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="12">
+      <c r="E87" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="12">
+      <c r="F87" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="12">
+      <c r="G87" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="12">
+      <c r="H87" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2737,28 +2755,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="12">
+      <c r="C89" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="12">
+      <c r="D89" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="12">
+      <c r="I89" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2875,10 +2893,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="12" t="s">
+      <c r="J93" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2922,28 +2940,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="12">
+      <c r="A95" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="12">
+      <c r="B95" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="12">
+      <c r="C95" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="12">
+      <c r="E95" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="12">
+      <c r="F95" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="12">
+      <c r="G95" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="12">
+      <c r="H95" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2968,28 +2986,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="12">
+      <c r="C97" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="12">
+      <c r="D97" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="12">
+      <c r="F97" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="12">
+      <c r="G97" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="12">
+      <c r="I97" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3077,10 +3095,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="12" t="s">
+      <c r="J100" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3124,28 +3142,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="12">
+      <c r="A102" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="12">
+      <c r="B102" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="12">
+      <c r="C102" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="12">
+      <c r="E102" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="12">
+      <c r="F102" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="12">
+      <c r="G102" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="12">
+      <c r="H102" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3170,28 +3188,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="12">
+      <c r="B104" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="12">
+      <c r="C104" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="12">
+      <c r="D104" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="12">
+      <c r="E104" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="12">
+      <c r="F104" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="12">
+      <c r="G104" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="12">
+      <c r="H104" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="12">
+      <c r="I104" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3308,10 +3326,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="12" t="s">
+      <c r="J108" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3355,28 +3373,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="12">
+      <c r="A110" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="12">
+      <c r="B110" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="12">
+      <c r="C110" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="12">
+      <c r="E110" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="12">
+      <c r="F110" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="12">
+      <c r="G110" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="12">
+      <c r="H110" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3401,28 +3419,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="12">
+      <c r="B112" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="12">
+      <c r="C112" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="12">
+      <c r="D112" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="12">
+      <c r="E112" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="12">
+      <c r="F112" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="12">
+      <c r="G112" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="12">
+      <c r="H112" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="12">
+      <c r="I112" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3481,10 +3499,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="12" t="s">
+      <c r="J114" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3528,28 +3546,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="12">
+      <c r="A116" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="12">
+      <c r="B116" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="12">
+      <c r="C116" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="12">
+      <c r="E116" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="12">
+      <c r="F116" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="12">
+      <c r="G116" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="12">
+      <c r="H116" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3574,28 +3592,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="12">
+      <c r="B118" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="12">
+      <c r="C118" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="12">
+      <c r="D118" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="12">
+      <c r="E118" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="12">
+      <c r="F118" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="12">
+      <c r="G118" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="12">
+      <c r="H118" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="12">
+      <c r="I118" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3741,10 +3759,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="12" t="s">
+      <c r="J123" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3788,28 +3806,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="12">
+      <c r="A125" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="12">
+      <c r="B125" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="12">
+      <c r="C125" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="12">
+      <c r="E125" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="12">
+      <c r="F125" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="12">
+      <c r="G125" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="12">
+      <c r="H125" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3834,28 +3852,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="12">
+      <c r="B127" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="12">
+      <c r="C127" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="12">
+      <c r="D127" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="12">
+      <c r="E127" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="12">
+      <c r="F127" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="12">
+      <c r="G127" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="12">
+      <c r="H127" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="12">
+      <c r="I127" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4001,10 +4019,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="12" t="s">
+      <c r="J132" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -4048,28 +4066,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="12">
+      <c r="A134" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="12">
+      <c r="C134" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4094,28 +4112,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="12">
+      <c r="B136" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="12">
+      <c r="C136" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="12">
+      <c r="D136" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="12">
+      <c r="E136" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="12">
+      <c r="F136" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="12">
+      <c r="G136" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="12">
+      <c r="H136" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="12">
+      <c r="I136" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4203,10 +4221,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="12" t="s">
+      <c r="J139" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4250,28 +4268,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="12">
+      <c r="A141" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="12">
+      <c r="B141" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="12">
+      <c r="C141" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="12">
+      <c r="E141" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="12">
+      <c r="F141" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="12">
+      <c r="G141" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="12">
+      <c r="H141" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4296,28 +4314,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="12">
+      <c r="B143" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="12">
+      <c r="C143" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="12">
+      <c r="D143" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="12">
+      <c r="E143" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="12">
+      <c r="F143" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="12">
+      <c r="G143" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="12">
+      <c r="H143" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="12">
+      <c r="I143" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4463,10 +4481,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="12" t="s">
+      <c r="J148" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4510,28 +4528,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="12">
+      <c r="A150" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="12">
+      <c r="B150" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="12">
+      <c r="C150" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="12">
+      <c r="E150" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="12">
+      <c r="F150" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="12">
+      <c r="G150" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="12">
+      <c r="H150" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4556,28 +4574,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="12">
+      <c r="B152" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="12">
+      <c r="C152" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="12">
+      <c r="D152" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="12">
+      <c r="E152" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="12">
+      <c r="F152" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="12">
+      <c r="G152" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="12">
+      <c r="H152" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="12">
+      <c r="I152" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4723,10 +4741,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="12" t="s">
+      <c r="J157" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4770,28 +4788,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="12">
+      <c r="A159" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="12">
+      <c r="B159" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="12">
+      <c r="C159" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="12">
+      <c r="E159" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="12">
+      <c r="F159" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="12">
+      <c r="G159" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="12">
+      <c r="H159" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4816,28 +4834,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="12">
+      <c r="B161" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="12">
+      <c r="C161" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="12">
+      <c r="D161" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="12">
+      <c r="E161" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="12">
+      <c r="F161" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="12">
+      <c r="G161" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="12">
+      <c r="H161" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="12">
+      <c r="I161" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4896,10 +4914,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="12" t="s">
+      <c r="J163" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4943,28 +4961,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="12">
+      <c r="A165" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="12">
+      <c r="B165" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="12">
+      <c r="C165" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="12">
+      <c r="E165" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="12">
+      <c r="F165" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="12">
+      <c r="G165" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="12">
+      <c r="H165" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4989,28 +5007,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="12">
+      <c r="B167" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="12">
+      <c r="C167" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="12">
+      <c r="D167" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="12">
+      <c r="E167" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="12">
+      <c r="F167" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="12">
+      <c r="G167" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="12">
+      <c r="H167" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="12">
+      <c r="I167" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5127,10 +5145,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="12" t="s">
+      <c r="J171" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5174,28 +5192,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="12">
+      <c r="A173" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="12">
+      <c r="B173" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="12">
+      <c r="C173" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="12">
+      <c r="E173" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="12">
+      <c r="F173" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="12">
+      <c r="G173" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="12">
+      <c r="H173" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5220,28 +5238,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="12">
+      <c r="B175" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="12">
+      <c r="C175" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="12">
+      <c r="D175" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="12">
+      <c r="E175" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="12">
+      <c r="F175" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="12">
+      <c r="G175" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="12">
+      <c r="H175" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="12">
+      <c r="I175" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5416,10 +5434,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="12" t="s">
+      <c r="J181" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5463,28 +5481,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="12">
+      <c r="A183" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="12">
+      <c r="B183" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="12">
+      <c r="C183" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="12">
+      <c r="E183" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="12">
+      <c r="F183" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="12">
+      <c r="G183" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="12">
+      <c r="H183" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5509,28 +5527,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="12">
+      <c r="B185" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="12">
+      <c r="C185" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="12">
+      <c r="D185" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="12">
+      <c r="E185" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="12">
+      <c r="F185" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="12">
+      <c r="G185" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="12">
+      <c r="H185" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="12">
+      <c r="I185" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5618,10 +5636,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="12" t="s">
+      <c r="J188" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5665,28 +5683,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="12">
+      <c r="A190" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="12">
+      <c r="B190" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="12">
+      <c r="C190" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="12">
+      <c r="E190" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="12">
+      <c r="F190" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="12">
+      <c r="G190" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="12">
+      <c r="H190" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5711,28 +5729,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="12">
+      <c r="B192" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="12">
+      <c r="C192" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="12">
+      <c r="D192" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="12">
+      <c r="E192" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="12">
+      <c r="F192" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="12">
+      <c r="G192" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="12">
+      <c r="H192" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="12">
+      <c r="I192" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5820,10 +5838,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="12" t="s">
+      <c r="J195" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5867,28 +5885,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="12">
+      <c r="A197" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="12">
+      <c r="B197" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="12">
+      <c r="C197" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="12">
+      <c r="E197" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="12">
+      <c r="F197" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="12">
+      <c r="G197" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="12">
+      <c r="H197" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5913,28 +5931,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="12">
+      <c r="B199" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="12">
+      <c r="C199" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="12">
+      <c r="D199" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="12">
+      <c r="E199" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="12">
+      <c r="F199" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="12">
+      <c r="G199" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="12">
+      <c r="H199" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="12">
+      <c r="I199" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6080,10 +6098,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="12" t="s">
+      <c r="J204" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6127,28 +6145,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="12">
+      <c r="A206" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="12">
+      <c r="B206" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="12">
+      <c r="C206" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="12">
+      <c r="E206" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="12">
+      <c r="F206" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="12">
+      <c r="G206" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="12">
+      <c r="H206" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6173,28 +6191,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="12">
+      <c r="B208" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="12">
+      <c r="C208" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="12">
+      <c r="D208" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="12">
+      <c r="E208" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="12">
+      <c r="F208" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="12">
+      <c r="G208" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="12">
+      <c r="H208" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="12">
+      <c r="I208" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6282,10 +6300,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="12" t="s">
+      <c r="J211" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6329,28 +6347,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="12">
+      <c r="A213" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="12">
+      <c r="B213" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="12">
+      <c r="C213" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="12">
+      <c r="E213" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="12">
+      <c r="F213" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="12">
+      <c r="G213" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="12">
+      <c r="H213" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6375,28 +6393,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="12">
+      <c r="B215" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="12">
+      <c r="C215" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="12">
+      <c r="D215" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="12">
+      <c r="E215" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="12">
+      <c r="F215" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="12">
+      <c r="G215" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="12">
+      <c r="H215" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="12">
+      <c r="I215" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6455,10 +6473,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="12" t="s">
+      <c r="J217" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6502,28 +6520,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="12">
+      <c r="A219" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="12">
+      <c r="B219" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="12">
+      <c r="C219" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="12">
+      <c r="E219" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="12">
+      <c r="F219" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="12">
+      <c r="G219" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="12">
+      <c r="H219" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6548,28 +6566,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="12">
+      <c r="C221" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="12">
+      <c r="D221" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="12">
+      <c r="E221" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="12">
+      <c r="F221" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="12">
+      <c r="G221" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="12">
+      <c r="H221" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="12">
+      <c r="I221" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6686,10 +6704,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="12" t="s">
+      <c r="J225" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6733,28 +6751,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="12">
+      <c r="A227" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="12">
+      <c r="C227" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="12">
+      <c r="E227" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="12">
+      <c r="F227" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="12">
+      <c r="G227" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="12">
+      <c r="H227" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6779,28 +6797,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="12">
+      <c r="B229" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="12">
+      <c r="C229" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="12">
+      <c r="D229" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="12">
+      <c r="E229" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="12">
+      <c r="F229" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="12">
+      <c r="G229" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="12">
+      <c r="H229" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="12">
+      <c r="I229" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6917,10 +6935,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="12" t="s">
+      <c r="J233" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6964,28 +6982,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="12">
+      <c r="A235" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="12">
+      <c r="B235" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="12">
+      <c r="C235" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="12">
+      <c r="E235" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="12">
+      <c r="F235" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="12">
+      <c r="G235" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="12">
+      <c r="H235" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7010,28 +7028,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="12">
+      <c r="B237" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="12">
+      <c r="C237" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="12">
+      <c r="D237" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="12">
+      <c r="E237" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="12">
+      <c r="F237" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="12">
+      <c r="G237" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="12">
+      <c r="H237" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="12">
+      <c r="I237" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7119,10 +7137,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="12" t="s">
+      <c r="J240" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7166,28 +7184,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="12">
+      <c r="A242" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="12">
+      <c r="B242" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="12">
+      <c r="C242" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="12">
+      <c r="E242" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="12">
+      <c r="F242" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="12">
+      <c r="G242" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="12">
+      <c r="H242" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7212,28 +7230,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="12">
+      <c r="B244" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="12">
+      <c r="C244" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="12">
+      <c r="D244" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="12">
+      <c r="E244" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="12">
+      <c r="F244" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="12">
+      <c r="G244" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="12">
+      <c r="H244" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="12">
+      <c r="I244" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7321,10 +7339,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="12" t="s">
+      <c r="J247" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7368,28 +7386,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="12">
+      <c r="A249" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="12">
+      <c r="B249" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="12">
+      <c r="C249" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="12">
+      <c r="E249" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="12">
+      <c r="F249" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="12">
+      <c r="G249" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="12">
+      <c r="H249" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7414,28 +7432,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="12">
+      <c r="B251" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="12">
+      <c r="C251" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="12">
+      <c r="D251" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="12">
+      <c r="E251" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="12">
+      <c r="F251" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="12">
+      <c r="G251" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="12">
+      <c r="H251" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="12">
+      <c r="I251" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7523,10 +7541,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="12" t="s">
+      <c r="J254" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7570,28 +7588,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="12">
+      <c r="A256" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="12">
+      <c r="B256" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="12">
+      <c r="C256" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="12">
+      <c r="E256" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="12">
+      <c r="F256" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="12">
+      <c r="G256" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="12">
+      <c r="H256" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7616,28 +7634,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="12">
+      <c r="B258" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="12">
+      <c r="C258" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="12">
+      <c r="D258" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="12">
+      <c r="E258" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="12">
+      <c r="F258" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="12">
+      <c r="G258" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="12">
+      <c r="H258" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="12">
+      <c r="I258" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7696,10 +7714,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="12" t="s">
+      <c r="J260" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7743,28 +7761,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="12">
+      <c r="A262" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="12">
+      <c r="B262" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="12">
+      <c r="C262" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="12">
+      <c r="E262" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="12">
+      <c r="F262" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="12">
+      <c r="G262" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="12">
+      <c r="H262" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7789,28 +7807,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="12">
+      <c r="B264" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="12">
+      <c r="C264" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="12">
+      <c r="D264" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="12">
+      <c r="E264" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="12">
+      <c r="F264" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="12">
+      <c r="G264" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="12">
+      <c r="H264" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="12">
+      <c r="I264" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7898,10 +7916,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="12" t="s">
+      <c r="J267" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7945,28 +7963,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="12">
+      <c r="A269" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="12">
+      <c r="B269" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="12">
+      <c r="C269" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="12">
+      <c r="E269" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="12">
+      <c r="F269" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="12">
+      <c r="G269" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="12">
+      <c r="H269" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7991,28 +8009,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="12">
+      <c r="B271" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="12">
+      <c r="C271" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="12">
+      <c r="D271" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="12">
+      <c r="E271" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="12">
+      <c r="F271" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="12">
+      <c r="G271" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="12">
+      <c r="H271" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="12">
+      <c r="I271" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8071,10 +8089,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="12" t="s">
+      <c r="J273" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8118,28 +8136,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="12">
+      <c r="A275" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="12">
+      <c r="B275" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="12">
+      <c r="C275" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="12">
+      <c r="E275" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="12">
+      <c r="F275" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="12">
+      <c r="G275" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="12">
+      <c r="H275" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8164,28 +8182,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="12">
+      <c r="B277" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="12">
+      <c r="C277" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="12">
+      <c r="D277" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="12">
+      <c r="E277" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="12">
+      <c r="F277" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="12">
+      <c r="G277" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="12">
+      <c r="H277" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="12">
+      <c r="I277" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8273,10 +8291,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="12" t="s">
+      <c r="J280" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8320,28 +8338,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="12">
+      <c r="A282" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="12">
+      <c r="B282" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="12">
+      <c r="C282" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="12">
+      <c r="E282" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="12">
+      <c r="F282" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="12">
+      <c r="G282" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="12">
+      <c r="H282" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8366,28 +8384,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="12">
+      <c r="B284" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="12">
+      <c r="C284" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="12">
+      <c r="D284" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="12">
+      <c r="E284" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="12">
+      <c r="F284" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="12">
+      <c r="G284" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="12">
+      <c r="H284" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="12">
+      <c r="I284" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8475,10 +8493,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="12" t="s">
+      <c r="J287" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8522,28 +8540,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="12">
+      <c r="A289" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="12">
+      <c r="B289" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="12">
+      <c r="C289" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="12">
+      <c r="E289" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="12">
+      <c r="F289" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="12">
+      <c r="G289" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="12">
+      <c r="H289" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8568,28 +8586,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="12">
+      <c r="B291" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="12">
+      <c r="C291" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="12">
+      <c r="D291" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="12">
+      <c r="E291" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="12">
+      <c r="F291" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="12">
+      <c r="G291" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="12">
+      <c r="H291" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="12">
+      <c r="I291" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8648,10 +8666,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="12" t="s">
+      <c r="J293" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8695,28 +8713,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="12">
+      <c r="A295" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="12">
+      <c r="B295" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="12">
+      <c r="C295" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="12">
+      <c r="E295" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="12">
+      <c r="F295" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="12">
+      <c r="G295" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="12">
+      <c r="H295" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8741,28 +8759,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="12">
+      <c r="B297" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="12">
+      <c r="C297" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="12">
+      <c r="D297" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="12">
+      <c r="E297" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="12">
+      <c r="F297" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="12">
+      <c r="G297" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="12">
+      <c r="H297" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="12">
+      <c r="I297" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8821,10 +8839,10 @@
       <c r="I299">
         <f>((C299-C298)^2+(D299- D298)^2)^.5</f>
       </c>
-      <c r="J299" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K299" s="12" t="s">
+      <c r="J299" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K299" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L299" t="n">
@@ -8868,28 +8886,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="12">
+      <c r="A301" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B301" t="s" s="12">
+      <c r="B301" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C301" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D301" t="s" s="12">
+      <c r="C301" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E301" t="s" s="12">
+      <c r="E301" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F301" t="s" s="12">
+      <c r="F301" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G301" t="s" s="12">
+      <c r="G301" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H301" t="s" s="12">
+      <c r="H301" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8914,28 +8932,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="12">
+      <c r="B303" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C303" t="s" s="12">
+      <c r="C303" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D303" t="s" s="12">
+      <c r="D303" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E303" t="s" s="12">
+      <c r="E303" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F303" t="s" s="12">
+      <c r="F303" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G303" t="s" s="12">
+      <c r="G303" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H303" t="s" s="12">
+      <c r="H303" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I303" t="s" s="12">
+      <c r="I303" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8994,10 +9012,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="12" t="s">
+      <c r="J305" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -9041,28 +9059,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="12">
+      <c r="A307" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="12">
+      <c r="B307" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="12">
+      <c r="C307" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="12">
+      <c r="E307" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="12">
+      <c r="F307" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="12">
+      <c r="G307" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="12">
+      <c r="H307" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9087,28 +9105,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="12">
+      <c r="B309" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="12">
+      <c r="C309" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="12">
+      <c r="D309" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="12">
+      <c r="E309" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="12">
+      <c r="F309" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="12">
+      <c r="G309" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="12">
+      <c r="H309" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="12">
+      <c r="I309" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9167,10 +9185,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="12" t="s">
+      <c r="J311" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
